--- a/biology/Médecine/Gaucherie/Gaucherie.xlsx
+++ b/biology/Médecine/Gaucherie/Gaucherie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gaucherie, ou sinistralité, est l'usage par une personne de la main gauche dans les tâches courantes.
 </t>
@@ -511,11 +523,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si l'on s'appuie sur les origines du mot, la gaucherie est synonyme de maladresse et malheur :
-Le verbe gauchir dérive de guenchir : faire des détours, emprunté au Francique wenkjan (chanceler, vaciller). Il y a peut-être eu croisement  avec gauch(i)er : fouler, du Francique walkan, dont l'origine latine est valgus : bancal, donc maladroit[1].
-Au Moyen Âge, une connotation négative était donnée au terme senestre : le côté gauche, dont l'origine latine est sinister[1]. Ceci vient de l'ancienne pratique romaine des augures : les événements (oiseaux) provenant de la gauche de l'observateur étaient considérés comme de mauvais présages. De plus, cette connotation a été renforcée après la christianisation de l'Empire romain car on retrouve la même connotation négative dans la Bible (surtout le Nouveau Testament comme Matthieu 25:41 "Ensuite il dira à ceux qui seront à sa gauche : Retirez-vous de moi, maudits ; allez dans le feu éternel qui a été préparé pour le diable et pour ses anges" ; autrement dit : Ce qui est mauvais (Ceux qui sont maudits et les serviteurs du diable) se trouve à gauche), et qu'à l'inverse, c'est la droite qui est associée à ce qui est honorable, sage, approuvé par Dieu[2].
+Le verbe gauchir dérive de guenchir : faire des détours, emprunté au Francique wenkjan (chanceler, vaciller). Il y a peut-être eu croisement  avec gauch(i)er : fouler, du Francique walkan, dont l'origine latine est valgus : bancal, donc maladroit.
+Au Moyen Âge, une connotation négative était donnée au terme senestre : le côté gauche, dont l'origine latine est sinister. Ceci vient de l'ancienne pratique romaine des augures : les événements (oiseaux) provenant de la gauche de l'observateur étaient considérés comme de mauvais présages. De plus, cette connotation a été renforcée après la christianisation de l'Empire romain car on retrouve la même connotation négative dans la Bible (surtout le Nouveau Testament comme Matthieu 25:41 "Ensuite il dira à ceux qui seront à sa gauche : Retirez-vous de moi, maudits ; allez dans le feu éternel qui a été préparé pour le diable et pour ses anges" ; autrement dit : Ce qui est mauvais (Ceux qui sont maudits et les serviteurs du diable) se trouve à gauche), et qu'à l'inverse, c'est la droite qui est associée à ce qui est honorable, sage, approuvé par Dieu.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La définition de gaucher s'oppose à celle de droitier. On parle de gaucherie homogène si cette latéralité concerne d'autres organes comme l'oreille, l'œil ou la jambe, sinon on parle de gaucherie partielle ou de latéralité croisée.
 Être « gaucher » ou « droitier » n'est pas aussi net que le vocabulaire le laisse penser : quantités d'activités sont naturellement faites préférentiellement comme un gaucher par des droitiers, et inversement ; notamment, la latéralisation n'étant pas toujours homogène, ce peut être (par exemple) celle de l'œil qui s'impose à celle de la main[réf. souhaitée].
@@ -578,10 +594,12 @@
           <t>Statistiques sur les gauchers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une étude anglophone réalisée en 1977[3], les gauchers représenteraient 8 à 15 % de la population.
-En France, en 2005, selon une enquête réalisée par l’association lesGauchers.com, le taux de gauchers serait de 12,9 %, 6 garçons pour 4 filles[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une étude anglophone réalisée en 1977, les gauchers représenteraient 8 à 15 % de la population.
+En France, en 2005, selon une enquête réalisée par l’association lesGauchers.com, le taux de gauchers serait de 12,9 %, 6 garçons pour 4 filles,.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Cause de la gaucherie, et de la latéralisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine de la latéralisation est encore mal comprise, mais des études[Lesquelles ?] récentes[Quand ?] basées sur la biologie moléculaire et l'épigénétique ont apporté de nouvelles hypothèses.
 On a d'abord supposé qu'il existe des éléments physiologiques (hormonaux par exemple), et sans doute génétiques, car une cause exclusivement culturelle ne semble pas compatible avec :
@@ -619,8 +639,8 @@
 le fait qu'on ne connaisse aucune culture où les gauchers soient ou aient été majoritaires chez les humains (les chevaux sont majoritairement gauchers)[réf. nécessaire].
 En revanche, l'existence de familles de gauchers ne suffit pas à caractériser une origine génétique, ces familles n'ayant pas le même rapport à la gaucherie que le reste de la population.
 Les jeunes enfants (avant 4 ans) sont déjà majoritairement droitiers, et adoptent généralement (rapidement : avant 6 ans) un comportement de droitier quand ils ne montraient pas de préférence ; la proportion de gauchers est faible au départ et augmente très peu.[réf. souhaitée][pas clair]
-En février 2016, une première étude identifie la cause de la gaucherie dans le développement de la colonne vertébrale et à des facteurs épigénétiques (causes environnementales modifiant l'ADN) ; le mécanisme enzymatique précis qui serait à l’œuvre reste cependant à étudier[6],[7].
-En 2017, des scientifiques allemands, néerlandais et sud-africains dirigés par des biophysiciens de l'Université de la Ruhr (Bochum) ont confirmé cette hypothèse après avoir étudié l'expression du génome lors du développement de la moelle épinière de bébés grandissant dans l'utérus entre la huitième et la douzième semaine de grossesse[6] ; selon eux, les asymétries hémisphériques du cerveau seraient précocement induites par le développement spinal plutôt que par celui du cerveau ou du cortex moteur dont le développement est plus tardif[6]. Les parties de la colonne vertébrale chargées de transmettre des impulsions nerveuses (électrochimiques) aux mains, aux bras, aux jambes et aux pieds seraient en cause[6].
+En février 2016, une première étude identifie la cause de la gaucherie dans le développement de la colonne vertébrale et à des facteurs épigénétiques (causes environnementales modifiant l'ADN) ; le mécanisme enzymatique précis qui serait à l’œuvre reste cependant à étudier,.
+En 2017, des scientifiques allemands, néerlandais et sud-africains dirigés par des biophysiciens de l'Université de la Ruhr (Bochum) ont confirmé cette hypothèse après avoir étudié l'expression du génome lors du développement de la moelle épinière de bébés grandissant dans l'utérus entre la huitième et la douzième semaine de grossesse ; selon eux, les asymétries hémisphériques du cerveau seraient précocement induites par le développement spinal plutôt que par celui du cerveau ou du cortex moteur dont le développement est plus tardif. Les parties de la colonne vertébrale chargées de transmettre des impulsions nerveuses (électrochimiques) aux mains, aux bras, aux jambes et aux pieds seraient en cause.
 Ceci explique que le fœtus humain présente très tôt des asymétries importantes de mouvements des bras, bien avant que le cortex moteur soit fonctionnellement lié à la moelle épinière, ce qui plaidait en faveur d'une expression génique spinale (dans la colonne vertébrale).
 L'expression de l'ARNm génomique et la méthylation de l'ADN ont été analysées dans les segments cervicaux et thoraciques antérieurs de cinq fœtus humains : il montre des asymétries d'expression des gènes dépendant du développement. Ces expressions génétiques asymétriques sont épigénétiquement régulées par des asymétries d'expression du miARN dans la voie de signalisation de TGF-ß (en) et des phénomènes de méthylisation des îlots CpG . Des mécanismes moléculaires de régulation épigénétique existent donc dans la moelle épinière, et ils sont le point de départ de la latéralisation chez l'individu, ce qui bouleverse notre compréhension de l'ontogénèse des asymétries hémisphériques chez l'être humain.
 </t>
@@ -651,7 +671,9 @@
           <t>Gaucher dans une population majoritairement droitière</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La majorité des êtres humains étant droitiers, la plupart des objets manufacturés non symétriques ou ayant un sens normal d'utilisation sont fabriqués pour être utilisés par un droitier.
 Ainsi, un téléphone fixe aura le combiné à gauche pour être saisi de la main gauche, laissant la main droite libre pour composer le numéro ou prendre des notes, et dans le métro, la validation du titre de transport se fera toujours sur le côté droit. La plupart des souris d'ordinateurs à plusieurs boutons ont leur clic principal qui tombe sous l'index quand on les prend en main droite, il faut donc que le gaucher en change le paramétrage, s'habitue à cliquer du majeur, ou adopte une souris spécifiquement pour gaucher.
@@ -691,10 +713,12 @@
           <t>Gauchers en sport</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus rarement, le gaucher a avantage d'adaptation : dans les situations de duel, il est forcément habitué à des adversaires droitiers, et il est à égalité avec un éventuel, et plus rare, adversaire gaucher ; au contraire, les droitiers ont moins l'habitude d'affronter des gauchers. Ceci existe encore dans les sports « d'opposition » (escrime, boxe, judo, tennis, tennis de table…). Ainsi, un boxeur droitier sera déconcerté par la garde « inversée » d'un gaucher, alors que l'inverse ne sera pas vrai.
-On trouve dans l'élite de certains sports une sur-représentation : 15 % de gauchers chez les joueurs de tennis, 23 % en boxe et en badminton, 32 % en tennis de table, et même jusqu’à 50 % en fleuret[8]. On constate facilement en examinant les listes de champions dans ces sports que les gauchers y figurent en proportion nettement plus importante que dans le reste de la population. On trouvait en particulier en 1980 une surreprésentation significative des gauchers, 6 sur les 10 premiers mondiaux au tennis de table, 3 sur les 4 premiers au tennis, et 8 sur 10 en fleuret[9].
+On trouve dans l'élite de certains sports une sur-représentation : 15 % de gauchers chez les joueurs de tennis, 23 % en boxe et en badminton, 32 % en tennis de table, et même jusqu’à 50 % en fleuret. On constate facilement en examinant les listes de champions dans ces sports que les gauchers y figurent en proportion nettement plus importante que dans le reste de la population. On trouvait en particulier en 1980 une surreprésentation significative des gauchers, 6 sur les 10 premiers mondiaux au tennis de table, 3 sur les 4 premiers au tennis, et 8 sur 10 en fleuret.
 Certains gauchers peuvent aussi utiliser leur main droite pour le sport, souvent lorsqu'ils y ont été contraints par autrui durant l'apprentissage.
 </t>
         </is>
@@ -724,7 +748,9 @@
           <t>Objets spécifiquement latéralisés</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>De nombreux objets sont inutilisables ou difficilement utilisables par les gauchers. Pour les objets les plus courants, des versions conçues pour les gauchers sont généralement disponibles.
 Les paires de ciseaux constituent l'exemple le plus fréquent. Le sens de croisement des lames de ciseaux ordinaires empêche un gaucher de voir sa ligne de coupe, et impose donc des contorsions pour couper précisément. Les ciseaux de cuisine ou de bricolage à poignées ergonomiques adaptées à la forme d'une main droite sont quant à eux inutilisables de la main gauche. On trouve maintenant pour gauchers dans les supermarchés (surtout en période de rentrée scolaire).
@@ -770,7 +796,9 @@
           <t>Gauchers contrariés</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">À Rome, avant toute action importante, on consultait les augures qui rendaient les auspices. Ces auspices consistaient généralement en l'observation du vol des oiseaux, lâchés pour l'occasion. Lorsque les oiseaux allaient à droite, les auspices sont favorables, à gauche, défavorables. En conséquence en Occident, la gauche (sinistra en latin qui a donné sinistre en français) fut longtemps associée à une symbolique extrêmement négative ; aussi contraignait-on, naguère, les gauchers à utiliser préférentiellement leur main droite, en particulier pour écrire.
 En Asie (Chine), l'usage de main droite est encore de nos jours quasiment imposé pour certaines activités (on les appelle les droitiers forcés). Ainsi, l'écriture des sinogrammes ne se fait qu'avec la main droite (en particulier pour la calligraphie). De même, à table, on considère qu'il est impoli de tenir ses baguettes dans la main gauche.
@@ -803,9 +831,11 @@
           <t>Célébration</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaque 13 août, une association organise en France la journée nationale des gauchers[10]. Et aussi la Journée internationale des gauchers au niveau mondial.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque 13 août, une association organise en France la journée nationale des gauchers. Et aussi la Journée internationale des gauchers au niveau mondial.
 </t>
         </is>
       </c>
